--- a/medicine/Œil et vue/Proxymétacaïne/Proxymétacaïne.xlsx
+++ b/medicine/Œil et vue/Proxymétacaïne/Proxymétacaïne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proxym%C3%A9taca%C3%AFne</t>
+          <t>Proxymétacaïne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La proxymétacaïne (DCI), aussi nommée kéracaïne ou proparacaïne, est un anesthésique local de type ester.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proxym%C3%A9taca%C3%AFne</t>
+          <t>Proxymétacaïne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous forme de chlorhydrate, la proxymétacaïne est une poudre blanche amorphe, soluble dans l'eau en donnant une solution légèrement acide.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proxym%C3%A9taca%C3%AFne</t>
+          <t>Proxymétacaïne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine humaine et vétérinaire, le chlorhydrate de proxymétacaïne est utilisé comme anesthésique de surface en instillation dans l'œil, en solution à la concentration de 0,5 %. L'anesthésie obtenue en une vingtaine de secondes, pour une durée de vingt à quarante minutes, permet l'extraction de corps étrangers dans l'œil, la mesure de la tension oculaire, les injections dans l'œil, voire la petite chirurgie de l'œil.
-La proxymétacaïne a un effet anesthésique local dix-huit fois plus important que la cocaïne et dix à vingt fois plus important que la procaïne[2].
+La proxymétacaïne a un effet anesthésique local dix-huit fois plus important que la cocaïne et dix à vingt fois plus important que la procaïne.
 Elle est commercialisée sous différents noms de marque : Ophtetic (Allergan), Alcaine (Alcon), Ophtaine (Squibb).
 </t>
         </is>
